--- a/SRA_metadata.xlsx
+++ b/SRA_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jselwyn\Documents\Coryphopterus\Bioinformatics\Coryphopterus_RAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C167ADA5-4D4A-4C07-B0E7-8152FCA15B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E868CA-7769-44EE-9CA3-FAF3DAE29D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact Info and Instructions" sheetId="3" r:id="rId1"/>
@@ -8919,13 +8919,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9707,8 +9707,8 @@
   <dimension ref="A1:Q807"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M1" sqref="M1"/>
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75"/>
@@ -42900,8 +42900,8 @@
       <c r="A2" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -43228,8 +43228,8 @@
       <c r="A39" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="47"/>
     </row>
     <row r="40" spans="1:3" ht="15" customHeight="1">
       <c r="A40" s="31" t="s">
@@ -43312,7 +43312,7 @@
       <c r="A50" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="47"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="44"/>
     </row>
     <row r="51" spans="1:3" ht="15" customHeight="1">
@@ -43906,38 +43906,25 @@
     <sortCondition ref="J87"/>
   </sortState>
   <mergeCells count="63">
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
@@ -43950,25 +43937,38 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
